--- a/Data Stacking XTimer.xlsx
+++ b/Data Stacking XTimer.xlsx
@@ -5,17 +5,18 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\Data Stacking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F468B10-DAC5-4F13-9C31-77FD14894BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46DD6C87-0195-4E96-9223-536D3FA167C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8B18A3B-ED80-47F0-8B3D-0A691C1BE762}"/>
   </bookViews>
   <sheets>
-    <sheet name="Timer" sheetId="1" r:id="rId1"/>
-    <sheet name="Obstacle" sheetId="4" r:id="rId2"/>
-    <sheet name="General Instructions" sheetId="3" r:id="rId3"/>
+    <sheet name="Creator's Message" sheetId="5" r:id="rId1"/>
+    <sheet name="Timer" sheetId="1" r:id="rId2"/>
+    <sheet name="Obstacle" sheetId="4" r:id="rId3"/>
+    <sheet name="General Instructions" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -505,6 +506,136 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08524353-1D34-4346-BBDF-CED2C9A9C942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="8000"/>
+            <a:t>Welcome!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t> show your appreciation for this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>valuable, free resource, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please subscribe to my </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>Please also share my videos so we can continue to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>grow the audience and community!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -923,7 +1054,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1429,10 +1560,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C75E6E-C25C-4753-B5E1-22FC6F9ED0CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C348D-1914-487E-B739-84A92EA593B7}">
   <dimension ref="A3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1519,7 +1665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA9ACCB-B885-449B-BFC6-278CE23414B6}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -2344,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6479008C-7C3B-4859-A0E8-687B28BFE3B8}">
   <dimension ref="A1"/>
   <sheetViews>
